--- a/ExcelTemplate/GSTR1_Template.xlsx
+++ b/ExcelTemplate/GSTR1_Template.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="b2b" sheetId="1" r:id="rId1"/>
     <sheet name="b2cl" sheetId="2" r:id="rId2"/>
     <sheet name="b2cs" sheetId="3" r:id="rId3"/>
+    <sheet name="hsn" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Summary For B2B(4)</t>
   </si>
@@ -82,6 +83,45 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Summary For HSN(12)</t>
+  </si>
+  <si>
+    <t>No. of HSN</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Total Integrated Tax</t>
+  </si>
+  <si>
+    <t>Total Central Tax</t>
+  </si>
+  <si>
+    <t>Total State/UT Tax</t>
+  </si>
+  <si>
+    <t>HSN</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>UQC</t>
+  </si>
+  <si>
+    <t>Total Quantity</t>
+  </si>
+  <si>
+    <t>Integrated Tax Amount</t>
+  </si>
+  <si>
+    <t>Central Tax Amount</t>
+  </si>
+  <si>
+    <t>State/UT Tax Amount</t>
   </si>
 </sst>
 </file>
@@ -156,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -203,12 +243,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -331,6 +429,52 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -639,7 +783,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -949,5 +1093,138 @@
     <protectedRange sqref="B1:B3" name="Summary_1_1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <f>COUNTA(A5:A1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="53">
+        <f>SUM(E5:E1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="53">
+        <f>SUM(F5:F1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="53">
+        <f>SUM(G5:G1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="53">
+        <f>SUM(H5:H1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="53">
+        <f>SUM(I5:I1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="53">
+        <f>SUM(J5:J1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelTemplate/GSTR1_Template.xlsx
+++ b/ExcelTemplate/GSTR1_Template.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="b2b" sheetId="1" r:id="rId1"/>
     <sheet name="b2cl" sheetId="2" r:id="rId2"/>
     <sheet name="b2cs" sheetId="3" r:id="rId3"/>
     <sheet name="hsn" sheetId="4" r:id="rId4"/>
+    <sheet name="cdnr" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Summary For B2B(4)</t>
   </si>
@@ -122,6 +123,42 @@
   </si>
   <si>
     <t>State/UT Tax Amount</t>
+  </si>
+  <si>
+    <t>Summary For CDNR(9B)</t>
+  </si>
+  <si>
+    <t>No. of Notes/Vouchers</t>
+  </si>
+  <si>
+    <t>Total Note/Refund Voucher Value</t>
+  </si>
+  <si>
+    <t>Receiver Name</t>
+  </si>
+  <si>
+    <t>Invoice/Advance Receipt Number</t>
+  </si>
+  <si>
+    <t>Invoice/Advance Receipt date</t>
+  </si>
+  <si>
+    <t>Note/Refund Voucher Number</t>
+  </si>
+  <si>
+    <t>Note/Refund Voucher date</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Reason For Issuing document</t>
+  </si>
+  <si>
+    <t>Note/Refund Voucher Value</t>
+  </si>
+  <si>
+    <t>Pre GST</t>
   </si>
 </sst>
 </file>
@@ -170,7 +207,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +232,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -306,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -474,6 +517,49 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -840,16 +926,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <f>COUNTA(A5:A1048576)</f>
         <v>0</v>
       </c>
       <c r="B3" s="11">
-        <f t="shared" ref="B3" si="0">COUNTA(B5:B1048576)</f>
         <v>0</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11">
-        <f>SUM(D5:D1048576)</f>
         <v>0</v>
       </c>
       <c r="E3" s="13"/>
@@ -911,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,12 +1042,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <f>COUNTA(A5:A1048576)</f>
         <v>0</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
-        <f>SUM(C5:C1048576)</f>
         <v>0</v>
       </c>
       <c r="D3" s="30"/>
@@ -1101,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,34 +1242,33 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
-        <f>COUNTA(A5:A1048576)</f>
         <v>0</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="45"/>
       <c r="E3" s="53">
-        <f>SUM(E5:E1048576)</f>
+        <f t="shared" ref="E3:J3" si="0">SUM(E5:E1048576)</f>
         <v>0</v>
       </c>
       <c r="F3" s="53">
-        <f>SUM(F5:F1048576)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="53">
-        <f>SUM(G5:G1048576)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="53">
-        <f>SUM(H5:H1048576)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="53">
-        <f>SUM(I5:I1048576)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="53">
-        <f>SUM(J5:J1048576)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1226,5 +1306,161 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>0</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53">
+        <v>0</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="53">
+        <v>0</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="53">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="53">
+        <f t="shared" ref="L3" si="0">SUM(L5:L1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="53">
+        <f t="shared" ref="M3" si="1">SUM(M5:M1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="J1:J3" name="Summary_2"/>
+    <protectedRange sqref="I1:I3" name="Summary_1_1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelTemplate/GSTR1_Template.xlsx
+++ b/ExcelTemplate/GSTR1_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="b2b" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,19 @@
     <sheet name="b2cs" sheetId="3" r:id="rId3"/>
     <sheet name="hsn" sheetId="4" r:id="rId4"/>
     <sheet name="cdnr" sheetId="5" r:id="rId5"/>
+    <sheet name="cdnur" sheetId="6" r:id="rId6"/>
+    <sheet name="exemp" sheetId="7" r:id="rId7"/>
+    <sheet name="docs" sheetId="8" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>Summary For B2B(4)</t>
   </si>
@@ -159,13 +165,85 @@
   </si>
   <si>
     <t>Pre GST</t>
+  </si>
+  <si>
+    <t>Summary For CDUNR(9B)</t>
+  </si>
+  <si>
+    <t>UR Type</t>
+  </si>
+  <si>
+    <t>Total Note Value</t>
+  </si>
+  <si>
+    <t>Summary For Nil rated, exempted and non GST outward supplies (8)</t>
+  </si>
+  <si>
+    <t>Total Nil Rated Supplies</t>
+  </si>
+  <si>
+    <t>Total Exempted Supplies</t>
+  </si>
+  <si>
+    <t>Total Non-GST Supplies</t>
+  </si>
+  <si>
+    <t>Nil Rated Supplies</t>
+  </si>
+  <si>
+    <t>Exempted (other than nil rated/non GST supply )</t>
+  </si>
+  <si>
+    <t>Non-GST supplies</t>
+  </si>
+  <si>
+    <t>Inter-State supplies to registered persons</t>
+  </si>
+  <si>
+    <t>Intra-State supplies to registered persons</t>
+  </si>
+  <si>
+    <t>Inter-State supplies to unregistered persons</t>
+  </si>
+  <si>
+    <t>Intra-State supplies to unregistered persons</t>
+  </si>
+  <si>
+    <t>Summary of documents issued during the tax period (13)</t>
+  </si>
+  <si>
+    <t>Total Number</t>
+  </si>
+  <si>
+    <t>Total Cancelled</t>
+  </si>
+  <si>
+    <t>Nature  of Document</t>
+  </si>
+  <si>
+    <t>Sr. No. From</t>
+  </si>
+  <si>
+    <t>Sr. No. To</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Invoice for outward supply</t>
+  </si>
+  <si>
+    <t>Credit Note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +283,15 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -349,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -560,6 +647,63 @@
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -577,6 +721,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Help Instruction"/>
+      <sheetName val="b2b"/>
+      <sheetName val="b2cl"/>
+      <sheetName val="b2cs"/>
+      <sheetName val="cdnr"/>
+      <sheetName val="cdnur"/>
+      <sheetName val="exp"/>
+      <sheetName val="at"/>
+      <sheetName val="atadj"/>
+      <sheetName val="exemp"/>
+      <sheetName val="hsn"/>
+      <sheetName val="docs"/>
+      <sheetName val="master"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -994,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1314,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,4 +1644,382 @@
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>0</v>
+      </c>
+      <c r="B3" s="53">
+        <v>0</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="53">
+        <v>0</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="53">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="53">
+        <f t="shared" ref="K3:L3" si="0">SUM(K5:K1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="I1:I3" name="Summary_2"/>
+    <protectedRange sqref="H1:H3" name="Summary_1_1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15">
+        <f>SUM(B5:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <f>SUM(C5:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <f>SUM(D5:D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79">
+        <f>SUM(D5:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="79">
+        <f>SUM(E5:E14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]master!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5:A10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>